--- a/DMSNewVSale_2025-11-12_12-58.xlsx
+++ b/DMSNewVSale_2025-11-12_12-58.xlsx
@@ -71,6 +71,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>CARNITOL 30% SYRUP 60ML</t>
   </si>
   <si>
@@ -135,12 +144,6 @@
   </si>
   <si>
     <t>7:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
   </si>
   <si>
     <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
@@ -1019,7 +1022,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1029,14 +1032,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1045,14 +1048,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1069,7 +1072,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1078,14 +1081,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1095,14 +1098,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1111,14 +1114,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1128,14 +1131,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1144,14 +1147,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1161,11 +1164,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>15</v>
@@ -1177,14 +1180,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1194,11 +1197,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>15</v>
@@ -1210,14 +1213,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1227,14 +1230,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1243,7 +1246,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1260,11 +1263,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>17</v>
@@ -1276,7 +1279,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1289,15 +1292,15 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>17</v>
@@ -1309,28 +1312,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>17</v>
@@ -1342,14 +1345,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1359,14 +1362,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1375,14 +1378,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1392,11 +1395,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>15</v>
@@ -1408,14 +1411,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1425,14 +1428,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1441,31 +1444,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1474,28 +1477,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1507,31 +1510,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1540,31 +1543,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1573,31 +1576,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1606,31 +1609,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1639,28 +1642,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>17</v>
@@ -1672,28 +1675,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -1705,28 +1708,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1745,21 +1748,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -1771,68 +1774,101 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>95</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>24</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>52</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>96</v>
       </c>
-      <c t="s" r="Q32" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" ht="25.5" customHeight="1">
-      <c r="N33" s="13">
-        <v>907.80999999999995</v>
-      </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>97</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c t="s" r="Q33" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" ht="26.25" customHeight="1">
+      <c r="N34" s="13">
+        <v>923.64999999999998</v>
+      </c>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
         <v>98</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
         <v>99</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>100</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1971,10 +2007,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
